--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.3174515</v>
+        <v>122.1023975</v>
       </c>
       <c r="H2">
-        <v>154.634903</v>
+        <v>244.204795</v>
       </c>
       <c r="I2">
-        <v>0.3250124887881288</v>
+        <v>0.5529388544589152</v>
       </c>
       <c r="J2">
-        <v>0.2721424217793227</v>
+        <v>0.5365853648354085</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N2">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O2">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P2">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q2">
-        <v>11057.87530454553</v>
+        <v>15610.78901727585</v>
       </c>
       <c r="R2">
-        <v>44231.50121818213</v>
+        <v>62443.1560691034</v>
       </c>
       <c r="S2">
-        <v>0.1815815224595612</v>
+        <v>0.5289949377862315</v>
       </c>
       <c r="T2">
-        <v>0.1246442920475355</v>
+        <v>0.5030666078320071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.3174515</v>
+        <v>122.1023975</v>
       </c>
       <c r="H3">
-        <v>154.634903</v>
+        <v>244.204795</v>
       </c>
       <c r="I3">
-        <v>0.3250124887881288</v>
+        <v>0.5529388544589152</v>
       </c>
       <c r="J3">
-        <v>0.2721424217793227</v>
+        <v>0.5365853648354085</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P3">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q3">
-        <v>2.971464296048</v>
+        <v>4.69263934072</v>
       </c>
       <c r="R3">
-        <v>17.828785776288</v>
+        <v>28.15583604432</v>
       </c>
       <c r="S3">
-        <v>4.879445607320489E-05</v>
+        <v>0.0001590171037063049</v>
       </c>
       <c r="T3">
-        <v>5.024148672211673E-05</v>
+        <v>0.0002268344814892954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.3174515</v>
+        <v>122.1023975</v>
       </c>
       <c r="H4">
-        <v>154.634903</v>
+        <v>244.204795</v>
       </c>
       <c r="I4">
-        <v>0.3250124887881288</v>
+        <v>0.5529388544589152</v>
       </c>
       <c r="J4">
-        <v>0.2721424217793227</v>
+        <v>0.5365853648354085</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N4">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O4">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P4">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q4">
-        <v>244.8676420059468</v>
+        <v>236.2293920016933</v>
       </c>
       <c r="R4">
-        <v>1469.205852035681</v>
+        <v>1417.37635201016</v>
       </c>
       <c r="S4">
-        <v>0.004020974917147525</v>
+        <v>0.008004986319840856</v>
       </c>
       <c r="T4">
-        <v>0.004140219487368554</v>
+        <v>0.01141894097469975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.3174515</v>
+        <v>122.1023975</v>
       </c>
       <c r="H5">
-        <v>154.634903</v>
+        <v>244.204795</v>
       </c>
       <c r="I5">
-        <v>0.3250124887881288</v>
+        <v>0.5529388544589152</v>
       </c>
       <c r="J5">
-        <v>0.2721424217793227</v>
+        <v>0.5365853648354085</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N5">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O5">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P5">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q5">
-        <v>33.068364736744</v>
+        <v>39.51679256850875</v>
       </c>
       <c r="R5">
-        <v>132.273458946976</v>
+        <v>158.067170274035</v>
       </c>
       <c r="S5">
-        <v>0.000543016072145229</v>
+        <v>0.001339085628737654</v>
       </c>
       <c r="T5">
-        <v>0.0003727463729028316</v>
+        <v>0.001273451250147626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.3174515</v>
+        <v>122.1023975</v>
       </c>
       <c r="H6">
-        <v>154.634903</v>
+        <v>244.204795</v>
       </c>
       <c r="I6">
-        <v>0.3250124887881288</v>
+        <v>0.5529388544589152</v>
       </c>
       <c r="J6">
-        <v>0.2721424217793227</v>
+        <v>0.5365853648354085</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N6">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O6">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P6">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q6">
-        <v>8057.008328567615</v>
+        <v>74.31607760800667</v>
       </c>
       <c r="R6">
-        <v>48342.04997140569</v>
+        <v>445.89646564804</v>
       </c>
       <c r="S6">
-        <v>0.1323042445748397</v>
+        <v>0.002518311458008834</v>
       </c>
       <c r="T6">
-        <v>0.1362278111495689</v>
+        <v>0.003592317181559485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.3174515</v>
+        <v>122.1023975</v>
       </c>
       <c r="H7">
-        <v>154.634903</v>
+        <v>244.204795</v>
       </c>
       <c r="I7">
-        <v>0.3250124887881288</v>
+        <v>0.5529388544589152</v>
       </c>
       <c r="J7">
-        <v>0.2721424217793227</v>
+        <v>0.5365853648354085</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N7">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O7">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P7">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q7">
-        <v>396.6829579571287</v>
+        <v>351.8367966714758</v>
       </c>
       <c r="R7">
-        <v>2380.097747742772</v>
+        <v>2111.020780028854</v>
       </c>
       <c r="S7">
-        <v>0.0065139363083619</v>
+        <v>0.01192251616239017</v>
       </c>
       <c r="T7">
-        <v>0.00670711123522486</v>
+        <v>0.0170072131155052</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>39.851258</v>
       </c>
       <c r="I8">
-        <v>0.0558397286884097</v>
+        <v>0.06015527240095533</v>
       </c>
       <c r="J8">
-        <v>0.07013434646816191</v>
+        <v>0.08756421761939603</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N8">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O8">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P8">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q8">
-        <v>1899.830862433744</v>
+        <v>1698.327506116404</v>
       </c>
       <c r="R8">
-        <v>11398.98517460247</v>
+        <v>10189.96503669842</v>
       </c>
       <c r="S8">
-        <v>0.03119714872119898</v>
+        <v>0.05755036804638516</v>
       </c>
       <c r="T8">
-        <v>0.032122320021203</v>
+        <v>0.08209436338012176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>39.851258</v>
       </c>
       <c r="I9">
-        <v>0.0558397286884097</v>
+        <v>0.06015527240095533</v>
       </c>
       <c r="J9">
-        <v>0.07013434646816191</v>
+        <v>0.08756421761939603</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.115296</v>
       </c>
       <c r="O9">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P9">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q9">
         <v>0.5105211824853333</v>
@@ -1013,10 +1013,10 @@
         <v>4.594690642368</v>
       </c>
       <c r="S9">
-        <v>8.383275359004621E-06</v>
+        <v>1.729977394919078E-05</v>
       </c>
       <c r="T9">
-        <v>1.294783008766558E-05</v>
+        <v>3.701663370338873E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>39.851258</v>
       </c>
       <c r="I10">
-        <v>0.0558397286884097</v>
+        <v>0.06015527240095533</v>
       </c>
       <c r="J10">
-        <v>0.07013434646816191</v>
+        <v>0.08756421761939603</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N10">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O10">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P10">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q10">
-        <v>42.07020704086289</v>
+        <v>25.69984603248711</v>
       </c>
       <c r="R10">
-        <v>378.631863367766</v>
+        <v>231.298614292384</v>
       </c>
       <c r="S10">
-        <v>0.0006908354484272958</v>
+        <v>0.0008708777268097143</v>
       </c>
       <c r="T10">
-        <v>0.001066983919974082</v>
+        <v>0.001863432545906935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>39.851258</v>
       </c>
       <c r="I11">
-        <v>0.0558397286884097</v>
+        <v>0.06015527240095533</v>
       </c>
       <c r="J11">
-        <v>0.07013434646816191</v>
+        <v>0.08756421761939603</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N11">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O11">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P11">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q11">
-        <v>5.681407880522667</v>
+        <v>4.299107219905666</v>
       </c>
       <c r="R11">
-        <v>34.08844728313601</v>
+        <v>25.794643319434</v>
       </c>
       <c r="S11">
-        <v>9.329447694485952E-05</v>
+        <v>0.0001456816791139488</v>
       </c>
       <c r="T11">
-        <v>9.606118403369097E-05</v>
+        <v>0.0002078117848589156</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>39.851258</v>
       </c>
       <c r="I12">
-        <v>0.0558397286884097</v>
+        <v>0.06015527240095533</v>
       </c>
       <c r="J12">
-        <v>0.07013434646816191</v>
+        <v>0.08756421761939603</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N12">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O12">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P12">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q12">
-        <v>1384.258065851609</v>
+        <v>8.084987799699556</v>
       </c>
       <c r="R12">
-        <v>12458.32259266448</v>
+        <v>72.764890197296</v>
       </c>
       <c r="S12">
-        <v>0.0227309207376338</v>
+        <v>0.0002739719057999829</v>
       </c>
       <c r="T12">
-        <v>0.03510753098798625</v>
+        <v>0.0005862225548034792</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>39.851258</v>
       </c>
       <c r="I13">
-        <v>0.0558397286884097</v>
+        <v>0.06015527240095533</v>
       </c>
       <c r="J13">
-        <v>0.07013434646816191</v>
+        <v>0.08756421761939603</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N13">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O13">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P13">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q13">
-        <v>68.15328490986577</v>
+        <v>38.27699604355578</v>
       </c>
       <c r="R13">
-        <v>613.3795641887921</v>
+        <v>344.492964392002</v>
       </c>
       <c r="S13">
-        <v>0.001119146028845754</v>
+        <v>0.001297073268897336</v>
       </c>
       <c r="T13">
-        <v>0.001728502524877224</v>
+        <v>0.002775370720001553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>68.1415255</v>
+        <v>0.02528933333333333</v>
       </c>
       <c r="H14">
-        <v>136.283051</v>
+        <v>0.075868</v>
       </c>
       <c r="I14">
-        <v>0.2864404654177555</v>
+        <v>0.0001145223622931973</v>
       </c>
       <c r="J14">
-        <v>0.239844943328318</v>
+        <v>0.0001667029447940724</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N14">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O14">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P14">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q14">
-        <v>9745.542273085781</v>
+        <v>3.233240748235333</v>
       </c>
       <c r="R14">
-        <v>38982.16909234312</v>
+        <v>19.399444489412</v>
       </c>
       <c r="S14">
-        <v>0.1600316837008914</v>
+        <v>0.0001095631993083669</v>
       </c>
       <c r="T14">
-        <v>0.1098516834195781</v>
+        <v>0.0001562895495274723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>68.1415255</v>
+        <v>0.02528933333333333</v>
       </c>
       <c r="H15">
-        <v>136.283051</v>
+        <v>0.075868</v>
       </c>
       <c r="I15">
-        <v>0.2864404654177555</v>
+        <v>0.0001145223622931973</v>
       </c>
       <c r="J15">
-        <v>0.239844943328318</v>
+        <v>0.0001667029447940724</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.115296</v>
       </c>
       <c r="O15">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P15">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q15">
-        <v>2.618815108016</v>
+        <v>0.0009719196586666667</v>
       </c>
       <c r="R15">
-        <v>15.712890648096</v>
+        <v>0.008747276928</v>
       </c>
       <c r="S15">
-        <v>4.300359890639852E-05</v>
+        <v>3.293495151338023E-08</v>
       </c>
       <c r="T15">
-        <v>4.427889800057661E-05</v>
+        <v>7.047150094505665E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>68.1415255</v>
+        <v>0.02528933333333333</v>
       </c>
       <c r="H16">
-        <v>136.283051</v>
+        <v>0.075868</v>
       </c>
       <c r="I16">
-        <v>0.2864404654177555</v>
+        <v>0.0001145223622931973</v>
       </c>
       <c r="J16">
-        <v>0.239844943328318</v>
+        <v>0.0001667029447940724</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N16">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O16">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P16">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q16">
-        <v>215.8070959164128</v>
+        <v>0.04892683485155555</v>
       </c>
       <c r="R16">
-        <v>1294.842575498477</v>
+        <v>0.440341513664</v>
       </c>
       <c r="S16">
-        <v>0.00354377129012935</v>
+        <v>1.657958987834196E-06</v>
       </c>
       <c r="T16">
-        <v>0.003648864083086355</v>
+        <v>3.547564305068295E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>68.1415255</v>
+        <v>0.02528933333333333</v>
       </c>
       <c r="H17">
-        <v>136.283051</v>
+        <v>0.075868</v>
       </c>
       <c r="I17">
-        <v>0.2864404654177555</v>
+        <v>0.0001145223622931973</v>
       </c>
       <c r="J17">
-        <v>0.239844943328318</v>
+        <v>0.0001667029447940724</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N17">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O17">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P17">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q17">
-        <v>29.143857890248</v>
+        <v>0.008184551327333334</v>
       </c>
       <c r="R17">
-        <v>116.575431560992</v>
+        <v>0.049107307964</v>
       </c>
       <c r="S17">
-        <v>0.0004785716912435216</v>
+        <v>2.773457648693818E-07</v>
       </c>
       <c r="T17">
-        <v>0.0003285093595485465</v>
+        <v>3.956277740009164E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>68.1415255</v>
+        <v>0.02528933333333333</v>
       </c>
       <c r="H18">
-        <v>136.283051</v>
+        <v>0.075868</v>
       </c>
       <c r="I18">
-        <v>0.2864404654177555</v>
+        <v>0.0001145223622931973</v>
       </c>
       <c r="J18">
-        <v>0.239844943328318</v>
+        <v>0.0001667029447940724</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N18">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O18">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P18">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q18">
-        <v>7100.813953688094</v>
+        <v>0.01539203240177778</v>
       </c>
       <c r="R18">
-        <v>42604.88372212856</v>
+        <v>0.138528291616</v>
       </c>
       <c r="S18">
-        <v>0.1166025635939989</v>
+        <v>5.215820426354697E-07</v>
       </c>
       <c r="T18">
-        <v>0.1200604868262831</v>
+        <v>1.116038364154787E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>68.1415255</v>
+        <v>0.02528933333333333</v>
       </c>
       <c r="H19">
-        <v>136.283051</v>
+        <v>0.075868</v>
       </c>
       <c r="I19">
-        <v>0.2864404654177555</v>
+        <v>0.0001145223622931973</v>
       </c>
       <c r="J19">
-        <v>0.239844943328318</v>
+        <v>0.0001667029447940724</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N19">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O19">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P19">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q19">
-        <v>349.6051844783207</v>
+        <v>0.07287095267688888</v>
       </c>
       <c r="R19">
-        <v>2097.631106869924</v>
+        <v>0.655838574092</v>
       </c>
       <c r="S19">
-        <v>0.005740871542585935</v>
+        <v>2.46934123797806E-06</v>
       </c>
       <c r="T19">
-        <v>0.005911120741821286</v>
+        <v>5.283693322431072E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>79.14797966666667</v>
+        <v>85.26190199999999</v>
       </c>
       <c r="H20">
-        <v>237.443939</v>
+        <v>170.523804</v>
       </c>
       <c r="I20">
-        <v>0.332707317105706</v>
+        <v>0.3861072295559822</v>
       </c>
       <c r="J20">
-        <v>0.4178782884241973</v>
+        <v>0.3746878826947755</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N20">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O20">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P20">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q20">
-        <v>11319.67586594218</v>
+        <v>10900.73242283101</v>
       </c>
       <c r="R20">
-        <v>67918.0551956531</v>
+        <v>43602.92969132403</v>
       </c>
       <c r="S20">
-        <v>0.185880553078909</v>
+        <v>0.3693876243832621</v>
       </c>
       <c r="T20">
-        <v>0.1913929591796827</v>
+        <v>0.3512823392058704</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>79.14797966666667</v>
+        <v>85.26190199999999</v>
       </c>
       <c r="H21">
-        <v>237.443939</v>
+        <v>170.523804</v>
       </c>
       <c r="I21">
-        <v>0.332707317105706</v>
+        <v>0.3861072295559822</v>
       </c>
       <c r="J21">
-        <v>0.4178782884241973</v>
+        <v>0.3746878826947755</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.115296</v>
       </c>
       <c r="O21">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P21">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q21">
-        <v>3.041815154549333</v>
+        <v>3.276785417664</v>
       </c>
       <c r="R21">
-        <v>27.376336390944</v>
+        <v>19.660712505984</v>
       </c>
       <c r="S21">
-        <v>4.994968848822029E-05</v>
+        <v>0.0001110387755697492</v>
       </c>
       <c r="T21">
-        <v>7.714646743442905E-05</v>
+        <v>0.0001583944273572607</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>79.14797966666667</v>
+        <v>85.26190199999999</v>
       </c>
       <c r="H22">
-        <v>237.443939</v>
+        <v>170.523804</v>
       </c>
       <c r="I22">
-        <v>0.332707317105706</v>
+        <v>0.3861072295559822</v>
       </c>
       <c r="J22">
-        <v>0.4178782884241973</v>
+        <v>0.3746878826947755</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N22">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O22">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P22">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q22">
-        <v>250.6650022021392</v>
+        <v>164.954723926432</v>
       </c>
       <c r="R22">
-        <v>2255.985019819253</v>
+        <v>989.7283435585919</v>
       </c>
       <c r="S22">
-        <v>0.004116173448662738</v>
+        <v>0.005589737573446186</v>
       </c>
       <c r="T22">
-        <v>0.006357361787884008</v>
+        <v>0.007973640536653953</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>79.14797966666667</v>
+        <v>85.26190199999999</v>
       </c>
       <c r="H23">
-        <v>237.443939</v>
+        <v>170.523804</v>
       </c>
       <c r="I23">
-        <v>0.332707317105706</v>
+        <v>0.3861072295559822</v>
       </c>
       <c r="J23">
-        <v>0.4178782884241973</v>
+        <v>0.3746878826947755</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N23">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O23">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P23">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q23">
-        <v>33.85127431151467</v>
+        <v>27.593863546623</v>
       </c>
       <c r="R23">
-        <v>203.107645869088</v>
+        <v>110.375454186492</v>
       </c>
       <c r="S23">
-        <v>0.0005558722410402234</v>
+        <v>0.0009350593435074709</v>
       </c>
       <c r="T23">
-        <v>0.0005723569861198232</v>
+        <v>0.0008892280406849865</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>79.14797966666667</v>
+        <v>85.26190199999999</v>
       </c>
       <c r="H24">
-        <v>237.443939</v>
+        <v>170.523804</v>
       </c>
       <c r="I24">
-        <v>0.332707317105706</v>
+        <v>0.3861072295559822</v>
       </c>
       <c r="J24">
-        <v>0.4178782884241973</v>
+        <v>0.3746878826947755</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N24">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O24">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P24">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q24">
-        <v>8247.761908753984</v>
+        <v>51.893576668208</v>
       </c>
       <c r="R24">
-        <v>74229.85717878584</v>
+        <v>311.361460009248</v>
       </c>
       <c r="S24">
-        <v>0.1354366117385944</v>
+        <v>0.001758491472194281</v>
       </c>
       <c r="T24">
-        <v>0.2091796059826271</v>
+        <v>0.002508450298750612</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>79.14797966666667</v>
+        <v>85.26190199999999</v>
       </c>
       <c r="H25">
-        <v>237.443939</v>
+        <v>170.523804</v>
       </c>
       <c r="I25">
-        <v>0.332707317105706</v>
+        <v>0.3861072295559822</v>
       </c>
       <c r="J25">
-        <v>0.4178782884241973</v>
+        <v>0.3746878826947755</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N25">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O25">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P25">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q25">
-        <v>406.0746193956485</v>
+        <v>245.681289573346</v>
       </c>
       <c r="R25">
-        <v>3654.671574560836</v>
+        <v>1474.087737440076</v>
       </c>
       <c r="S25">
-        <v>0.006668156910011311</v>
+        <v>0.008325278008002479</v>
       </c>
       <c r="T25">
-        <v>0.01029885802044928</v>
+        <v>0.01187583018545823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.453212</v>
+      </c>
+      <c r="I26">
+        <v>0.0006841212218540695</v>
+      </c>
+      <c r="J26">
+        <v>0.0009958319056257072</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>127.8499795</v>
+      </c>
+      <c r="N26">
+        <v>255.699959</v>
+      </c>
+      <c r="O26">
+        <v>0.9566969901290183</v>
+      </c>
+      <c r="P26">
+        <v>0.9375332254660301</v>
+      </c>
+      <c r="Q26">
+        <v>19.31438163638466</v>
+      </c>
+      <c r="R26">
+        <v>115.886289818308</v>
+      </c>
+      <c r="S26">
+        <v>0.0006544967138311747</v>
+      </c>
+      <c r="T26">
+        <v>0.0009336254985032526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.453212</v>
+      </c>
+      <c r="I27">
+        <v>0.0006841212218540695</v>
+      </c>
+      <c r="J27">
+        <v>0.0009958319056257072</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.038432</v>
+      </c>
+      <c r="N27">
+        <v>0.115296</v>
+      </c>
+      <c r="O27">
+        <v>0.0002875853314050663</v>
+      </c>
+      <c r="P27">
+        <v>0.0004227369890322564</v>
+      </c>
+      <c r="Q27">
+        <v>0.005805947861333333</v>
+      </c>
+      <c r="R27">
+        <v>0.052253530752</v>
+      </c>
+      <c r="S27">
+        <v>1.967432283081415E-07</v>
+      </c>
+      <c r="T27">
+        <v>4.209749813664656E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.453212</v>
+      </c>
+      <c r="I28">
+        <v>0.0006841212218540695</v>
+      </c>
+      <c r="J28">
+        <v>0.0009958319056257072</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.934682666666667</v>
+      </c>
+      <c r="N28">
+        <v>5.804048</v>
+      </c>
+      <c r="O28">
+        <v>0.0144771637140136</v>
+      </c>
+      <c r="P28">
+        <v>0.02128075367505108</v>
+      </c>
+      <c r="Q28">
+        <v>0.2922738002417777</v>
+      </c>
+      <c r="R28">
+        <v>2.630464202176</v>
+      </c>
+      <c r="S28">
+        <v>9.904134929012384E-06</v>
+      </c>
+      <c r="T28">
+        <v>2.119205348537739E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.453212</v>
+      </c>
+      <c r="I29">
+        <v>0.0006841212218540695</v>
+      </c>
+      <c r="J29">
+        <v>0.0009958319056257072</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.3236365</v>
+      </c>
+      <c r="N29">
+        <v>0.647273</v>
+      </c>
+      <c r="O29">
+        <v>0.002421760775064419</v>
+      </c>
+      <c r="P29">
+        <v>0.002373250061596896</v>
+      </c>
+      <c r="Q29">
+        <v>0.04889198181266666</v>
+      </c>
+      <c r="R29">
+        <v>0.293351890876</v>
+      </c>
+      <c r="S29">
+        <v>1.656777940475328E-06</v>
+      </c>
+      <c r="T29">
+        <v>2.363358131366364E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.453212</v>
+      </c>
+      <c r="I30">
+        <v>0.0006841212218540695</v>
+      </c>
+      <c r="J30">
+        <v>0.0009958319056257072</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6086373333333334</v>
+      </c>
+      <c r="N30">
+        <v>1.825912</v>
+      </c>
+      <c r="O30">
+        <v>0.004554412188076668</v>
+      </c>
+      <c r="P30">
+        <v>0.006694772941974269</v>
+      </c>
+      <c r="Q30">
+        <v>0.09194724770488889</v>
+      </c>
+      <c r="R30">
+        <v>0.827525229344</v>
+      </c>
+      <c r="S30">
+        <v>3.115770030934076E-06</v>
+      </c>
+      <c r="T30">
+        <v>6.666868496537659E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.453212</v>
+      </c>
+      <c r="I31">
+        <v>0.0006841212218540695</v>
+      </c>
+      <c r="J31">
+        <v>0.0009958319056257072</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.881489666666667</v>
+      </c>
+      <c r="N31">
+        <v>8.644468999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.02156208786242213</v>
+      </c>
+      <c r="P31">
+        <v>0.03169526086631522</v>
+      </c>
+      <c r="Q31">
+        <v>0.4353085649364444</v>
+      </c>
+      <c r="R31">
+        <v>3.917777084428</v>
+      </c>
+      <c r="S31">
+        <v>1.475108189416503E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.156315202780659E-05</v>
       </c>
     </row>
   </sheetData>
